--- a/scripts/violations_details.xlsx
+++ b/scripts/violations_details.xlsx
@@ -14,43 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Details</t>
   </si>
   <si>
     <t>Pay now
-FORD MUSTANG, 2024, Black
-BB
-57782
+CADILLAC ESCALADE, 2023, Blue
+N
+85540
 Date and Time of Issuing The Fine:
-12 Jul 2025, 4:58 am
+14 Jul 2025, 12:10 am
 Location:
-Sheikh Zayed Road
-Source:
-Dubai Police
-Amount:
-AED 700
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-7037849083
-Details:
-Exceeding maximum speed limit by not more than 40 km h
-Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-BMW 330I 2023, Black
-CC
-30526
-Date and Time of Issuing The Fine:
-12 Jul 2025, 3:41 am
-Location:
-Sheikh Zayed Road
+Ras Al khour St
 Source:
 Dubai Police
 Amount:
@@ -60,33 +36,9 @@
 Online declaration:
 NO
 Fine Number:
-7037848839
+7037866556
 Details:
 Exceeding maximum speed limit by not more than 30 km h
-Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-NISSAN SENTRA, 2023, Blue
-DD
-37961
-Date and Time of Issuing The Fine:
-11 Jul 2025, 1:18 pm
-Location:
-Sheikh Zayed Road
-Source:
-Dubai Police
-Amount:
-AED 400
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-7037858268
-Details:
-failure of a light vehicle to abid by lane discipline
 Dispute:
 Please contact Dubai Police for details about disputing your fine.</t>
   </si>
@@ -470,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,16 +443,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/violations_details.xlsx
+++ b/scripts/violations_details.xlsx
@@ -14,33 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Details</t>
   </si>
   <si>
     <t>Pay now
-CADILLAC ESCALADE, 2023, Blue
-N
-85540
+NISSAN VERSA, 2024, Blue
+Q
+89764
 Date and Time of Issuing The Fine:
-14 Jul 2025, 12:10 am
+19 Jul 2025, 8:50 am
 Location:
-Ras Al khour St
+GPS Location
 Source:
 Dubai Police
 Amount:
-AED 600
+AED 500
 Payable Black Points:
 -
 Online declaration:
 NO
 Fine Number:
-7037866556
+9010811131
 Details:
-Exceeding maximum speed limit by not more than 30 km h
+Parking in a wrong way
 Dispute:
 Please contact Dubai Police for details about disputing your fine.</t>
+  </si>
+  <si>
+    <t>Pay now
+KIA PEGAS, 2024, White
+U
+87907
+Date and Time of Issuing The Fine:
+16 Jul 2025, 7:55 pm
+Location:
+-
+Source:
+RTA (Parking Fines)
+Amount:
+AED 100
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+24067325
+Details:
+Parking Fine
+Dispute:
+Click here to apply for a request to dispute this fine.</t>
   </si>
   <si>
     <t>Pay now
@@ -422,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,6 +467,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/violations_details.xlsx
+++ b/scripts/violations_details.xlsx
@@ -14,9 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>Pay now
+RANGE ROVER SPORT, 2023, Golden
+BB
+90835
+Date and Time of Issuing The Fine:
+19 Jul 2025, 1:24 pm
+Location:
+-
+Source:
+RTA (Parking Fines)
+Amount:
+AED 150
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+24059326
+Details:
+Parking Fine
+Dispute:
+Click here to apply for a request to dispute this fine.</t>
   </si>
   <si>
     <t>Pay now
@@ -446,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,6 +496,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/violations_details.xlsx
+++ b/scripts/violations_details.xlsx
@@ -14,21 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Details</t>
   </si>
   <si>
     <t>Pay now
-RANGE ROVER SPORT, 2023, Golden
-BB
-90835
+MERCEDES E350, 2023, Gray
+CC
+53008
 Date and Time of Issuing The Fine:
-19 Jul 2025, 1:24 pm
+26 Jul 2025, 10:24 am
 Location:
+Almaydan street
+Source:
+Dubai Police
+Amount:
+AED 400
+Payable Black Points:
 -
+Online declaration:
+NO
+Fine Number:
+7037984032
+Details:
+failure of a light vehicle to abid by lane discipline
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+  </si>
+  <si>
+    <t>Pay now
+BMW 530, 2024, Black
+DD
+38019
+Date and Time of Issuing The Fine:
+25 Jul 2025, 9:59 pm
+Location:
+Sheikh Zayed Road
 Source:
-RTA (Parking Fines)
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7037978787
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+  </si>
+  <si>
+    <t>Pay now
+KIA PEGAS, 2024, Gray
+U
+76326
+Date and Time of Issuing The Fine:
+25 Jul 2025, 3:36 pm
+Location:
+0
+Source:
+Department of Transportation Abu Dhabi
 Amount:
 AED 150
 Payable Black Points:
@@ -36,59 +84,35 @@
 Online declaration:
 NO
 Fine Number:
-24059326
+1527163873
 Details:
-Parking Fine
+01- عدم وجود تذكرة أو تصريح وقوف / 01 - Unavailability of parking ticket or permit
 Dispute:
-Click here to apply for a request to dispute this fine.</t>
+Please contact Department of Transportation Abu Dhabi for details about disputing your fine.</t>
   </si>
   <si>
     <t>Pay now
-NISSAN VERSA, 2024, Blue
-Q
-89764
+KIA FORTE, 2024, Black
+DD
+54717
 Date and Time of Issuing The Fine:
-19 Jul 2025, 8:50 am
+22 Jul 2025, 11:57 am
 Location:
-GPS Location
+ام القيوين-منطقة الرملة 2-شارع الاتحاد الدولي
 Source:
-Dubai Police
+Um Al Quewain Traffic
 Amount:
-AED 500
+AED 300
 Payable Black Points:
 -
 Online declaration:
 NO
 Fine Number:
-9010811131
+6250159614
 Details:
-Parking in a wrong way
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
 Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-KIA PEGAS, 2024, White
-U
-87907
-Date and Time of Issuing The Fine:
-16 Jul 2025, 7:55 pm
-Location:
--
-Source:
-RTA (Parking Fines)
-Amount:
-AED 100
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-24067325
-Details:
-Parking Fine
-Dispute:
-Click here to apply for a request to dispute this fine.</t>
+Please contact Um Al Quewain Traffic for details about disputing your fine.</t>
   </si>
   <si>
     <t>Pay now
@@ -470,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,6 +525,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/violations_details.xlsx
+++ b/scripts/violations_details.xlsx
@@ -1,168 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Pay now
-MERCEDES E350, 2023, Gray
-CC
-53008
-Date and Time of Issuing The Fine:
-26 Jul 2025, 10:24 am
-Location:
-Almaydan street
-Source:
-Dubai Police
-Amount:
-AED 400
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-7037984032
-Details:
-failure of a light vehicle to abid by lane discipline
-Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-BMW 530, 2024, Black
-DD
-38019
-Date and Time of Issuing The Fine:
-25 Jul 2025, 9:59 pm
-Location:
-Sheikh Zayed Road
-Source:
-Dubai Police
-Amount:
-AED 600
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-7037978787
-Details:
-Exceeding maximum speed limit by not more than 30 km h
-Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-KIA PEGAS, 2024, Gray
-U
-76326
-Date and Time of Issuing The Fine:
-25 Jul 2025, 3:36 pm
-Location:
-0
-Source:
-Department of Transportation Abu Dhabi
-Amount:
-AED 150
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-1527163873
-Details:
-01- عدم وجود تذكرة أو تصريح وقوف / 01 - Unavailability of parking ticket or permit
-Dispute:
-Please contact Department of Transportation Abu Dhabi for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-KIA FORTE, 2024, Black
-DD
-54717
-Date and Time of Issuing The Fine:
-22 Jul 2025, 11:57 am
-Location:
-ام القيوين-منطقة الرملة 2-شارع الاتحاد الدولي
-Source:
-Um Al Quewain Traffic
-Amount:
-AED 300
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-6250159614
-Details:
-تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
-Dispute:
-Please contact Um Al Quewain Traffic for details about disputing your fine.</t>
-  </si>
-  <si>
-    <t>Pay now
-KIA K5, 2023, Black
-DD
-81392
-Date and Time of Issuing The Fine:
-11 Jul 2025, 8:30 am
-Location:
-Dubai Alain Road
-Source:
-Dubai Police
-Amount:
-AED 600
-Payable Black Points:
--
-Online declaration:
-NO
-Fine Number:
-7037841032
-Details:
-Exceeding maximum speed limit by not more than 30 km h
-Dispute:
-Please contact Dubai Police for details about disputing your fine.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,44 +420,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA FORTE, 2024, Black
+DD
+54717
+Date and Time of Issuing The Fine:
+27 Aug 2025, 10:50 am
+Location:
+0
+Source:
+Department of Transportation Abu Dhabi
+Amount:
+AED 150
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+1527345798
+Details:
+01- عدم وجود تذكرة أو تصريح وقوف / 01 - Unavailability of parking ticket or permit
+Dispute:
+Please contact Department of Transportation Abu Dhabi for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA SPORTAGE, 2024, Black
+DD
+38011
+Date and Time of Issuing The Fine:
+26 Aug 2025, 9:08 pm
+Location:
+Industrial Area 4
+Source:
+Sharjah Municipality
+Amount:
+AED 150
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+103406629
+Details:
+الوقوف دون سداد الرسم المستحق / Failure to purchase and dis-play valid ticket
+Dispute:
+Please contact Sharjah Municipality for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pay now
+LAND ROVER RANGE ROVER, 2024, White
+CC
+29422
+Date and Time of Issuing The Fine:
+26 Aug 2025, 5:14 pm
+Location:
+Sheikh Rashid St
+Source:
+Dubai Police
+Amount:
+AED 400
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038272922
+Details:
+failure of a light vehicle to abid by lane discipline
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pay now
+LAND ROVER RANGE ROVER, 2024, White
+CC
+29422
+Date and Time of Issuing The Fine:
+26 Aug 2025, 4:07 pm
+Location:
+الشارقة-الذيد-الذيد / بالرشيد-الذيد / بالرشيد-دوار معسكر فلاح طريق جسر بن قطاه
+Source:
+Sharjah Traffic
+Amount:
+AED 390
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6251215322
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 30 كم / ساعة . / Exceeding maximum speed limit by no more than 30km/hr
+Dispute:
+Please contact Sharjah Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pay now
+NISSAN ROGUE, 2023, Blue
+DD
+38013
+Date and Time of Issuing The Fine:
+26 Aug 2025, 3:33 pm
+Location:
+Al Ithad St
+Source:
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038270186
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA SPORTAGE, 2024, Black
+DD
+38011
+Date and Time of Issuing The Fine:
+25 Aug 2025, 6:20 pm
+Location:
+Industrial Area 4
+Source:
+Sharjah Municipality
+Amount:
+AED 150
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+103405051
+Details:
+الوقوف دون سداد الرسم المستحق / Failure to purchase and dis-play valid ticket
+Dispute:
+Please contact Sharjah Municipality for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pay now
+LAND ROVER RANGE ROVER, 2024, White
+CC
+29422
+Date and Time of Issuing The Fine:
+24 Aug 2025, 1:56 pm
+Location:
+الشارقة-مدينة الشارقه-النهدة-شارع الاتحاد
+Source:
+Sharjah Traffic
+Amount:
+AED 455
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6251199077
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 40 كم / ساعة . / Exceeding maximum speed limit by no more than 40km/hr
+Dispute:
+Please contact Sharjah Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA FORTE, 2024, Black
+DD
+54717
+Date and Time of Issuing The Fine:
+24 Aug 2025, 10:41 am
+Location:
+العين-الهير-الهير 6-طريق سويحان
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254915224
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pay now
+BMW 330I, 2023, Black
+CC
+30526
+Date and Time of Issuing The Fine:
+23 Aug 2025, 10:57 pm
+Location:
+ابوظبي-روضة الريف-طريق المفرق الشهامة - شارع الخدمات
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254913401
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA FORTE, 2024, Black
+DD
+54717
+Date and Time of Issuing The Fine:
+23 Aug 2025, 11:51 am
+Location:
+العين-البطين-الغدير-شارع حمدان بن محمد
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254924902
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pay now
+NISSAN SENTRA, 2024, Black
+V
+92135
+Date and Time of Issuing The Fine:
+22 Aug 2025, 8:52 pm
+Location:
+العين-الهير-الهير 6-طريق سويحان
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254807055
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pay now
+LAND ROVER RANGE ROVER, 2024, White
+CC
+29422
+Date and Time of Issuing The Fine:
+21 Aug 2025, 11:33 pm
+Location:
+ابوظبي-ميناء زايد-الميناء-نفق ميناء الشيخ زايد
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254882706
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pay now
+NISSAN SENTRA, 2024, Black
+V
+92135
+Date and Time of Issuing The Fine:
+21 Aug 2025, 2:45 pm
+Location:
+العين-المويجعي-مجلود-شارع خليفة بن زايد
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254873941
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pay now
+CHEVROLET MALIBU, 2023, Gray
+CC
+30528
+Date and Time of Issuing The Fine:
+21 Aug 2025, 5:01 am
+Location:
+AL Jamail
+Source:
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038221729
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pay now
+CHEVROLET MALIBU, 2023, Gray
+CC
+30528
+Date and Time of Issuing The Fine:
+21 Aug 2025, 3:21 am
+Location:
+Sheikh Zayed Road
+Source:
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038221361
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pay now
+MERCEDES CLA250, 2021, Silver
+CC
+33951
+Date and Time of Issuing The Fine:
+21 Aug 2025, 2:50 am
+Location:
+Naif
+Source:
+Bus Lanes Fines
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+510000003341895
+Details:
+BusLane Fine / BusLane Fine
+Dispute:
+Click here to apply for a request to dispute this fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pay now
+JETOUR T2, 2025, Gray
+DD
+88098
+Date and Time of Issuing The Fine:
+20 Aug 2025, 5:53 pm
+Location:
+-
+Source:
+RTA (Parking Fines)
+Amount:
+AED 1,000
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+24406640
+Details:
+Parking Fine
+Dispute:
+Click here to apply for a request to dispute this fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pay now
+HYUNDAI TUCSON, 2022, Black
+CC
+30529
+Date and Time of Issuing The Fine:
+19 Aug 2025, 4:25 pm
+Location:
+العين-المقام-قصر المقام-شارع خليفة بن زايد
+Source:
+Abu Dhabi Traffic
+Amount:
+AED 195
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6254826140
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 20 كم / ساعة . / Exceeding maximum speed limit by no more than 20km/hr
+Dispute:
+Please contact Abu Dhabi Traffic for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pay now
+HYUNDAI SONATA, 2024, Black
+DD
+54719
+Date and Time of Issuing The Fine:
+19 Aug 2025, 9:26 am
+Location:
+GPS Location
+Source:
+Dubai Police
+Amount:
+AED 400
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+9011002022
+Details:
+failure of a light vehicle to abid by lane discipline
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA K5, 2023, Black
+DD
+81392
+Date and Time of Issuing The Fine:
+14 Aug 2025, 7:09 pm
+Location:
+GPS Location
+Source:
+Dubai Police
+Amount:
+AED 500
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+9010956894
+Details:
+Parking in a wrong way
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pay now
+NISSAN SENTRA, 2023, Blue
+DD
+37961
+Date and Time of Issuing The Fine:
+14 Aug 2025, 2:15 pm
+Location:
+0
+Source:
+Department of Transportation Abu Dhabi
+Amount:
+AED 150
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+1527691040
+Details:
+01- عدم وجود تذكرة أو تصريح وقوف / 01 - Unavailability of parking ticket or permit
+Dispute:
+Please contact Department of Transportation Abu Dhabi for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pay now
+MERCEDES GLE 53, 2023, White
+Y
+60125
+Date and Time of Issuing The Fine:
+04 Aug 2025, 8:44 pm
+Location:
+Palm Island (Jumeirah)
+Source:
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038075947
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pay now
+KIA K5, 2023, Black
+DD
+81392
+Date and Time of Issuing The Fine:
+03 Aug 2025, 8:26 am
+Location:
+Dubai Alain Road
+Source:
+Dubai Police
+Amount:
+AED 600
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+7038050289
+Details:
+Exceeding maximum speed limit by not more than 30 km h
+Dispute:
+Please contact Dubai Police for details about disputing your fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pay now
+HYUNDAI ELANTRA, 2023, Silver
+DD
+81307
+Date and Time of Issuing The Fine:
+02 Aug 2025, 5:51 am
+Location:
+عجمان-السوان-شارع الشيخ خليفة بن زايد
+Source:
+Ajman Traffic
+Amount:
+AED 700
+Payable Black Points:
+-
+Online declaration:
+NO
+Fine Number:
+6250261928
+Details:
+تجاوز الحد الاقصى للسرعة المقررة بما لا يزيد عن 40 كم / ساعة . / Exceeding maximum speed limit by no more than 40km/hr
+Dispute:
+Please contact Ajman Traffic for details about disputing your fine.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>